--- a/medicine/Pharmacie/Naloxégol/Naloxégol.xlsx
+++ b/medicine/Pharmacie/Naloxégol/Naloxégol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nalox%C3%A9gol</t>
+          <t>Naloxégol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le naloxégol est un dérivé PEGylé de l'antagoniste des récepteurs opioïdes-µ : la naloxone. La PEGylation réduit la perméabilité passive du naloxégol et fait également de cette molécule un substrat pour le transporteur glycoprotéine P. Compte-tenu de la faible perméabilité et de l'efflux plus important du naloxégol au travers de la barrière hémato-encéphalique, liés aux propriétés de substrat de la P-gp, la pénétration du naloxégol dans le système nerveux central est minimale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nalox%C3%A9gol</t>
+          <t>Naloxégol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le naloxégol agit en se liant aux récepteurs µ-opioïdes dans le tractus gastro-intestinal, ciblant les causes sous-jacentes de la constipation induite par les opioïdes (à savoir, réduction de la motilité gastro-intestinale, hypertonicité et augmentation de l'absorption des liquides résultant du traitement opioïde au long cours)[2],[3]. Le naloxégol fonctionne comme antagoniste du récepteur µ-opioïde d'action périphérique dans le tractus gastro-intestinal, diminuant par ce moyen les effets constipants des opioïdes sans altérer les effets analgésiques des opioïdes sur le système nerveux central[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le naloxégol agit en se liant aux récepteurs µ-opioïdes dans le tractus gastro-intestinal, ciblant les causes sous-jacentes de la constipation induite par les opioïdes (à savoir, réduction de la motilité gastro-intestinale, hypertonicité et augmentation de l'absorption des liquides résultant du traitement opioïde au long cours),. Le naloxégol fonctionne comme antagoniste du récepteur µ-opioïde d'action périphérique dans le tractus gastro-intestinal, diminuant par ce moyen les effets constipants des opioïdes sans altérer les effets analgésiques des opioïdes sur le système nerveux central.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nalox%C3%A9gol</t>
+          <t>Naloxégol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets indésirables les plus fréquemment rapportés sont : douleurs abdominales, diarrhées, nausées, céphalées et flatulences[5]. Les effets indésirables gastro-intestinaux sont d'intensité modérée et surviennent en début de traitement[6]. Rarement, il peut exister un syndrome de sevrage[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets indésirables les plus fréquemment rapportés sont : douleurs abdominales, diarrhées, nausées, céphalées et flatulences. Les effets indésirables gastro-intestinaux sont d'intensité modérée et surviennent en début de traitement. Rarement, il peut exister un syndrome de sevrage.
 </t>
         </is>
       </c>
